--- a/DE/Compiled Attendence/BT-CSE-II-B52_ECEG1012_3.xlsx
+++ b/DE/Compiled Attendence/BT-CSE-II-B52_ECEG1012_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X42"/>
+  <dimension ref="A1:Y42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,95 +456,100 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>2024-01-11 12.00</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-13 11.00</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-16 10.00</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-18 12.00</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-20 11.00</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-23 10.00</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-25 12.00</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-27 11.00</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-30 10.00</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-12 10.00</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-16 11.00</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-19 10.00</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-21 12.00</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>2024-03-23 11.00</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>2024-04-02 10.00</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>2024-04-04 12.00</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2024-01-23 10.00</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2024-01-16 10.00</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2024-01-11 12.00</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>2024-01-18 12.00</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>2024-01-13 11.00</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>2024-01-20 11.00</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>2024-01-27 11.00</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>2024-01-25 12.00</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>2024-01-30 10.00</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>2024-03-16 11.00</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>2024-03-19 10.00</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>2024-03-21 12.00</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>2024-03-12 10.00</t>
-        </is>
-      </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
+          <t>2024-04-09 10.00</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>Total Classes</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Total Present</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Percentage</t>
         </is>
@@ -600,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -615,19 +620,22 @@
         <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>17</v>
+      </c>
+      <c r="X2" t="n">
         <v>7</v>
       </c>
-      <c r="X2" t="n">
-        <v>44</v>
+      <c r="Y2" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -689,10 +697,10 @@
         <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
@@ -701,12 +709,15 @@
         <v>1</v>
       </c>
       <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>17</v>
+      </c>
+      <c r="X3" t="n">
         <v>16</v>
       </c>
-      <c r="W3" t="n">
-        <v>15</v>
-      </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>94</v>
       </c>
     </row>
@@ -781,12 +792,15 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
+        <v>17</v>
+      </c>
+      <c r="X4" t="n">
         <v>2</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>12</v>
       </c>
     </row>
@@ -843,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -855,19 +869,22 @@
         <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="X5" t="n">
-        <v>44</v>
+        <v>8</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="6">
@@ -920,16 +937,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -938,16 +955,19 @@
         <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W6" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="X6" t="n">
-        <v>62</v>
+        <v>11</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -1009,10 +1029,10 @@
         <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>1</v>
@@ -1021,13 +1041,16 @@
         <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W7" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="X7" t="n">
-        <v>81</v>
+        <v>14</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -1080,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -1098,16 +1121,19 @@
         <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>17</v>
+      </c>
+      <c r="X8" t="n">
         <v>11</v>
       </c>
-      <c r="X8" t="n">
-        <v>69</v>
+      <c r="Y8" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -1163,31 +1189,34 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="X9" t="n">
-        <v>56</v>
+        <v>10</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -1249,10 +1278,10 @@
         <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>1</v>
@@ -1261,13 +1290,16 @@
         <v>1</v>
       </c>
       <c r="V10" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W10" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="X10" t="n">
-        <v>81</v>
+        <v>14</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="11">
@@ -1329,10 +1361,10 @@
         <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>1</v>
@@ -1341,13 +1373,16 @@
         <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W11" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="X11" t="n">
-        <v>75</v>
+        <v>13</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="12">
@@ -1421,13 +1456,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="X12" t="n">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -1501,12 +1539,15 @@
         <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W13" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="X13" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y13" t="n">
         <v>88</v>
       </c>
     </row>
@@ -1566,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1575,19 +1616,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
+        <v>17</v>
+      </c>
+      <c r="X14" t="n">
         <v>9</v>
       </c>
-      <c r="X14" t="n">
-        <v>56</v>
+      <c r="Y14" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="15">
@@ -1652,22 +1696,25 @@
         <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
+        <v>17</v>
+      </c>
+      <c r="X15" t="n">
         <v>12</v>
       </c>
-      <c r="X15" t="n">
-        <v>75</v>
+      <c r="Y15" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="16">
@@ -1741,12 +1788,15 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1821,12 +1871,15 @@
         <v>1</v>
       </c>
       <c r="V17" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W17" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="X17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y17" t="n">
         <v>88</v>
       </c>
     </row>
@@ -1901,13 +1954,16 @@
         <v>1</v>
       </c>
       <c r="V18" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
+        <v>17</v>
+      </c>
+      <c r="X18" t="n">
         <v>12</v>
       </c>
-      <c r="X18" t="n">
-        <v>75</v>
+      <c r="Y18" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="19">
@@ -1981,12 +2037,15 @@
         <v>1</v>
       </c>
       <c r="V19" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W19" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="X19" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y19" t="n">
         <v>88</v>
       </c>
     </row>
@@ -2061,12 +2120,15 @@
         <v>1</v>
       </c>
       <c r="V20" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W20" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="X20" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y20" t="n">
         <v>88</v>
       </c>
     </row>
@@ -2126,13 +2188,13 @@
         <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>1</v>
@@ -2141,13 +2203,16 @@
         <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W21" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="X21" t="n">
-        <v>75</v>
+        <v>13</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="22">
@@ -2200,19 +2265,19 @@
         <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>1</v>
@@ -2221,13 +2286,16 @@
         <v>1</v>
       </c>
       <c r="V22" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W22" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="X22" t="n">
-        <v>75</v>
+        <v>13</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="23">
@@ -2280,13 +2348,13 @@
         <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2295,19 +2363,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
+        <v>17</v>
+      </c>
+      <c r="X23" t="n">
         <v>8</v>
       </c>
-      <c r="X23" t="n">
-        <v>50</v>
+      <c r="Y23" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="24">
@@ -2366,10 +2437,10 @@
         <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>1</v>
@@ -2381,13 +2452,16 @@
         <v>1</v>
       </c>
       <c r="V24" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
+        <v>17</v>
+      </c>
+      <c r="X24" t="n">
         <v>11</v>
       </c>
-      <c r="X24" t="n">
-        <v>69</v>
+      <c r="Y24" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="25">
@@ -2461,13 +2535,16 @@
         <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
+        <v>17</v>
+      </c>
+      <c r="X25" t="n">
         <v>11</v>
       </c>
-      <c r="X25" t="n">
-        <v>69</v>
+      <c r="Y25" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="26">
@@ -2523,16 +2600,16 @@
         <v>1</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>1</v>
@@ -2541,13 +2618,16 @@
         <v>1</v>
       </c>
       <c r="V26" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W26" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="X26" t="n">
-        <v>56</v>
+        <v>10</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="27">
@@ -2621,12 +2701,15 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="X27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y27" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2701,12 +2784,15 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="X28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y28" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2769,10 +2855,10 @@
         <v>1</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>1</v>
@@ -2781,12 +2867,15 @@
         <v>1</v>
       </c>
       <c r="V29" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W29" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="X29" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y29" t="n">
         <v>88</v>
       </c>
     </row>
@@ -2840,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -2852,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>1</v>
@@ -2861,13 +2950,16 @@
         <v>1</v>
       </c>
       <c r="V30" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W30" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="X30" t="n">
-        <v>56</v>
+        <v>10</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="31">
@@ -2920,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -2941,12 +3033,15 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
+        <v>17</v>
+      </c>
+      <c r="X31" t="n">
         <v>2</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Y31" t="n">
         <v>12</v>
       </c>
     </row>
@@ -3021,13 +3116,16 @@
         <v>1</v>
       </c>
       <c r="V32" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
+        <v>17</v>
+      </c>
+      <c r="X32" t="n">
         <v>11</v>
       </c>
-      <c r="X32" t="n">
-        <v>69</v>
+      <c r="Y32" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="33">
@@ -3089,10 +3187,10 @@
         <v>1</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>1</v>
@@ -3101,12 +3199,15 @@
         <v>1</v>
       </c>
       <c r="V33" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W33" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="X33" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y33" t="n">
         <v>88</v>
       </c>
     </row>
@@ -3160,7 +3261,7 @@
         <v>1</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -3178,16 +3279,19 @@
         <v>1</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W34" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="X34" t="n">
-        <v>75</v>
+        <v>13</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="35">
@@ -3240,13 +3344,13 @@
         <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3258,16 +3362,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W35" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="X35" t="n">
-        <v>56</v>
+        <v>10</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="36">
@@ -3341,12 +3448,15 @@
         <v>1</v>
       </c>
       <c r="V36" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W36" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X36" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y36" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3403,31 +3513,34 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>1</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V37" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W37" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="X37" t="n">
-        <v>62</v>
+        <v>11</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="38">
@@ -3489,10 +3602,10 @@
         <v>1</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>1</v>
@@ -3501,13 +3614,16 @@
         <v>1</v>
       </c>
       <c r="V38" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W38" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="X38" t="n">
-        <v>81</v>
+        <v>14</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="39">
@@ -3581,13 +3697,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
+        <v>17</v>
+      </c>
+      <c r="X39" t="n">
         <v>4</v>
       </c>
-      <c r="X39" t="n">
-        <v>25</v>
+      <c r="Y39" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="40">
@@ -3661,12 +3780,15 @@
         <v>1</v>
       </c>
       <c r="V40" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W40" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X40" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y40" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3741,12 +3863,15 @@
         <v>1</v>
       </c>
       <c r="V41" t="n">
+        <v>1</v>
+      </c>
+      <c r="W41" t="n">
+        <v>17</v>
+      </c>
+      <c r="X41" t="n">
         <v>16</v>
       </c>
-      <c r="W41" t="n">
-        <v>15</v>
-      </c>
-      <c r="X41" t="n">
+      <c r="Y41" t="n">
         <v>94</v>
       </c>
     </row>
@@ -3821,12 +3946,15 @@
         <v>1</v>
       </c>
       <c r="V42" t="n">
+        <v>1</v>
+      </c>
+      <c r="W42" t="n">
+        <v>17</v>
+      </c>
+      <c r="X42" t="n">
         <v>16</v>
       </c>
-      <c r="W42" t="n">
-        <v>15</v>
-      </c>
-      <c r="X42" t="n">
+      <c r="Y42" t="n">
         <v>94</v>
       </c>
     </row>
